--- a/elite-data/manifest-templates/EL_template_AssayBsSeqTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayBsSeqTemplate.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="138">
   <si>
     <t>Filename</t>
   </si>
@@ -427,7 +427,7 @@
     <t>l</t>
   </si>
   <si>
-    <t>sac-seq</t>
+    <t>Qiagen Rneasy Extraction Kit</t>
   </si>
   <si>
     <t>M</t>
@@ -436,7 +436,7 @@
     <t>PCRfree</t>
   </si>
   <si>
-    <t>Smart-seq1</t>
+    <t>sac-seq</t>
   </si>
   <si>
     <t>mg</t>
@@ -445,7 +445,7 @@
     <t>polyAselection</t>
   </si>
   <si>
-    <t>Smart-seq2</t>
+    <t>Smart-seq1</t>
   </si>
   <si>
     <t>mg/dl</t>
@@ -454,7 +454,7 @@
     <t>proximity ligation</t>
   </si>
   <si>
-    <t>Smart-seq4</t>
+    <t>Smart-seq2</t>
   </si>
   <si>
     <t>mg/l</t>
@@ -463,7 +463,7 @@
     <t>rRNAdepletion</t>
   </si>
   <si>
-    <t>SMRTbell</t>
+    <t>Smart-seq4</t>
   </si>
   <si>
     <t>mg/ml</t>
@@ -472,7 +472,7 @@
     <t>snIsoSeq</t>
   </si>
   <si>
-    <t>TruSeq</t>
+    <t>SMRTbell</t>
   </si>
   <si>
     <t>miu/ml</t>
@@ -481,13 +481,16 @@
     <t>SPLITseq</t>
   </si>
   <si>
-    <t>Ultralow Methyl-Seq</t>
+    <t>TruSeq</t>
   </si>
   <si>
     <t>ml</t>
   </si>
   <si>
     <t>STARRSeq</t>
+  </si>
+  <si>
+    <t>Ultralow Methyl-Seq</t>
   </si>
   <si>
     <t>mM</t>
@@ -35020,11 +35023,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="R2:R1000">
       <formula1>Sheet2!$R$2:$R$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
-      <formula1>Sheet2!$M$2:$M$22</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="V2:V1000">
       <formula1>Sheet2!$V$2:$V$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
+      <formula1>Sheet2!$M$2:$M$23</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -35437,28 +35440,31 @@
         <v>101</v>
       </c>
       <c r="M22" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="J23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23">
-      <c r="J23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="24">
       <c r="J24" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="J25" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>62</v>
@@ -35466,32 +35472,32 @@
     </row>
     <row r="26">
       <c r="J26" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
       <c r="J27" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="J28" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="J29" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="J30" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="J31" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -35511,122 +35517,122 @@
     </row>
     <row r="35">
       <c r="J35" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="J36" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
       <c r="J37" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
       <c r="J38" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="J39" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="J40" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="J41" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="J42" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
       <c r="J43" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="J44" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
       <c r="J45" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
       <c r="J46" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="J47" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
       <c r="J48" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
       <c r="J49" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
       <c r="J50" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
       <c r="J51" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
       <c r="J52" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="J53" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="J54" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
       <c r="J55" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
       <c r="J56" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
       <c r="J57" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
       <c r="J58" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">

--- a/elite-data/manifest-templates/EL_template_AssayBsSeqTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayBsSeqTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -699,6 +699,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
